--- a/Sprints/sprint 8.xlsx
+++ b/Sprints/sprint 8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\PIM\Sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80571672-6F46-4714-9AD4-06F854D09B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F09BFE-E029-4CB8-8E68-44758CC2B4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5250" yWindow="1725" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>STATUS</t>
   </si>
@@ -63,12 +63,6 @@
     <t>Bruno, Cristielen Gabriel</t>
   </si>
   <si>
-    <t>Cristiele e Gabriel</t>
-  </si>
-  <si>
-    <t>Edições nos Gráficos</t>
-  </si>
-  <si>
     <t>Criação da planilha de testes</t>
   </si>
   <si>
@@ -79,6 +73,15 @@
   </si>
   <si>
     <t>Alterações na monografia</t>
+  </si>
+  <si>
+    <t>Alterações no Manual do Usuário</t>
+  </si>
+  <si>
+    <t>Cristielen</t>
+  </si>
+  <si>
+    <t>Edições nos Diagramas</t>
   </si>
 </sst>
 </file>
@@ -215,8 +218,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:D7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:D8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TAREFA REALIZADA " dataDxfId="2"/>
@@ -524,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -587,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -601,10 +604,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -629,12 +632,26 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Sprints/sprint 8.xlsx
+++ b/Sprints/sprint 8.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\PIM\Sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F09BFE-E029-4CB8-8E68-44758CC2B4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7C0254-16D9-4693-BE04-80C17842BE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="1725" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint" sheetId="2" r:id="rId1"/>
+    <sheet name="Sprint 8" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>STATUS</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>Edições nos Diagramas</t>
+  </si>
+  <si>
+    <t>HORAS TRABALHADAS</t>
+  </si>
+  <si>
+    <t>1 Hora e 30 Minutos</t>
+  </si>
+  <si>
+    <t>1 Hora</t>
   </si>
 </sst>
 </file>
@@ -129,7 +138,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -218,13 +246,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:D8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TAREFA REALIZADA " dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="QUEM REALIZOU" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TAREFA REALIZADA " dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="QUEM REALIZOU" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{4B75DBD0-DE5D-4BD2-9120-E03005AD6681}" name="HORAS TRABALHADAS" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -527,23 +556,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="4" width="29.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -554,10 +583,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -568,10 +600,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -582,10 +617,13 @@
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -596,10 +634,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -610,10 +651,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -624,10 +668,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -638,10 +685,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -652,6 +702,9 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
